--- a/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Serie</t>
   </si>
@@ -755,6 +755,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6316,6 +6319,29 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242">
+        <v>3.9</v>
+      </c>
+      <c r="C242">
+        <v>4.2</v>
+      </c>
+      <c r="D242">
+        <v>4.5</v>
+      </c>
+      <c r="E242">
+        <v>0.9</v>
+      </c>
+      <c r="F242">
+        <v>1.1</v>
+      </c>
+      <c r="G242">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6342,6 +6345,29 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243">
+        <v>4.6</v>
+      </c>
+      <c r="C243">
+        <v>4.9</v>
+      </c>
+      <c r="D243">
+        <v>4.9</v>
+      </c>
+      <c r="E243">
+        <v>1.2</v>
+      </c>
+      <c r="F243">
+        <v>1.6</v>
+      </c>
+      <c r="G243">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -35,6 +35,309 @@
   </si>
   <si>
     <t>BCU dentro de 23 meses</t>
+  </si>
+  <si>
+    <t>01-01-2001</t>
+  </si>
+  <si>
+    <t>01-09-2001</t>
+  </si>
+  <si>
+    <t>01-10-2001</t>
+  </si>
+  <si>
+    <t>01-11-2001</t>
+  </si>
+  <si>
+    <t>01-12-2001</t>
+  </si>
+  <si>
+    <t>01-01-2002</t>
+  </si>
+  <si>
+    <t>01-02-2002</t>
+  </si>
+  <si>
+    <t>01-03-2002</t>
+  </si>
+  <si>
+    <t>01-04-2002</t>
+  </si>
+  <si>
+    <t>01-05-2002</t>
+  </si>
+  <si>
+    <t>01-06-2002</t>
+  </si>
+  <si>
+    <t>01-07-2002</t>
+  </si>
+  <si>
+    <t>01-08-2002</t>
+  </si>
+  <si>
+    <t>01-09-2002</t>
+  </si>
+  <si>
+    <t>01-10-2002</t>
+  </si>
+  <si>
+    <t>01-11-2002</t>
+  </si>
+  <si>
+    <t>01-12-2002</t>
+  </si>
+  <si>
+    <t>01-01-2003</t>
+  </si>
+  <si>
+    <t>01-02-2003</t>
+  </si>
+  <si>
+    <t>01-03-2003</t>
+  </si>
+  <si>
+    <t>01-04-2003</t>
+  </si>
+  <si>
+    <t>01-05-2003</t>
+  </si>
+  <si>
+    <t>01-06-2003</t>
+  </si>
+  <si>
+    <t>01-07-2003</t>
+  </si>
+  <si>
+    <t>01-08-2003</t>
+  </si>
+  <si>
+    <t>01-09-2003</t>
+  </si>
+  <si>
+    <t>01-10-2003</t>
+  </si>
+  <si>
+    <t>01-11-2003</t>
+  </si>
+  <si>
+    <t>01-12-2003</t>
+  </si>
+  <si>
+    <t>01-01-2004</t>
+  </si>
+  <si>
+    <t>01-02-2004</t>
+  </si>
+  <si>
+    <t>01-03-2004</t>
+  </si>
+  <si>
+    <t>01-04-2004</t>
+  </si>
+  <si>
+    <t>01-05-2004</t>
+  </si>
+  <si>
+    <t>01-06-2004</t>
+  </si>
+  <si>
+    <t>01-07-2004</t>
+  </si>
+  <si>
+    <t>01-08-2004</t>
+  </si>
+  <si>
+    <t>01-09-2004</t>
+  </si>
+  <si>
+    <t>01-10-2004</t>
+  </si>
+  <si>
+    <t>01-11-2004</t>
+  </si>
+  <si>
+    <t>01-12-2004</t>
+  </si>
+  <si>
+    <t>01-01-2005</t>
+  </si>
+  <si>
+    <t>01-02-2005</t>
+  </si>
+  <si>
+    <t>01-03-2005</t>
+  </si>
+  <si>
+    <t>01-04-2005</t>
+  </si>
+  <si>
+    <t>01-05-2005</t>
+  </si>
+  <si>
+    <t>01-06-2005</t>
+  </si>
+  <si>
+    <t>01-07-2005</t>
+  </si>
+  <si>
+    <t>01-08-2005</t>
+  </si>
+  <si>
+    <t>01-09-2005</t>
+  </si>
+  <si>
+    <t>01-10-2005</t>
+  </si>
+  <si>
+    <t>01-11-2005</t>
+  </si>
+  <si>
+    <t>01-12-2005</t>
+  </si>
+  <si>
+    <t>01-01-2006</t>
+  </si>
+  <si>
+    <t>01-02-2006</t>
+  </si>
+  <si>
+    <t>01-03-2006</t>
+  </si>
+  <si>
+    <t>01-04-2006</t>
+  </si>
+  <si>
+    <t>01-05-2006</t>
+  </si>
+  <si>
+    <t>01-06-2006</t>
+  </si>
+  <si>
+    <t>01-07-2006</t>
+  </si>
+  <si>
+    <t>01-08-2006</t>
+  </si>
+  <si>
+    <t>01-09-2006</t>
+  </si>
+  <si>
+    <t>01-10-2006</t>
+  </si>
+  <si>
+    <t>01-11-2006</t>
+  </si>
+  <si>
+    <t>01-12-2006</t>
+  </si>
+  <si>
+    <t>01-01-2007</t>
+  </si>
+  <si>
+    <t>01-02-2007</t>
+  </si>
+  <si>
+    <t>01-03-2007</t>
+  </si>
+  <si>
+    <t>01-04-2007</t>
+  </si>
+  <si>
+    <t>01-05-2007</t>
+  </si>
+  <si>
+    <t>01-06-2007</t>
+  </si>
+  <si>
+    <t>01-07-2007</t>
+  </si>
+  <si>
+    <t>01-08-2007</t>
+  </si>
+  <si>
+    <t>01-09-2007</t>
+  </si>
+  <si>
+    <t>01-10-2007</t>
+  </si>
+  <si>
+    <t>01-11-2007</t>
+  </si>
+  <si>
+    <t>01-12-2007</t>
+  </si>
+  <si>
+    <t>01-01-2008</t>
+  </si>
+  <si>
+    <t>01-02-2008</t>
+  </si>
+  <si>
+    <t>01-03-2008</t>
+  </si>
+  <si>
+    <t>01-04-2008</t>
+  </si>
+  <si>
+    <t>01-05-2008</t>
+  </si>
+  <si>
+    <t>01-06-2008</t>
+  </si>
+  <si>
+    <t>01-07-2008</t>
+  </si>
+  <si>
+    <t>01-08-2008</t>
+  </si>
+  <si>
+    <t>01-09-2008</t>
+  </si>
+  <si>
+    <t>01-10-2008</t>
+  </si>
+  <si>
+    <t>01-11-2008</t>
+  </si>
+  <si>
+    <t>01-12-2008</t>
+  </si>
+  <si>
+    <t>01-01-2009</t>
+  </si>
+  <si>
+    <t>01-02-2009</t>
+  </si>
+  <si>
+    <t>01-03-2009</t>
+  </si>
+  <si>
+    <t>01-04-2009</t>
+  </si>
+  <si>
+    <t>01-05-2009</t>
+  </si>
+  <si>
+    <t>01-06-2009</t>
+  </si>
+  <si>
+    <t>01-07-2009</t>
+  </si>
+  <si>
+    <t>01-08-2009</t>
+  </si>
+  <si>
+    <t>01-09-2009</t>
+  </si>
+  <si>
+    <t>01-10-2009</t>
+  </si>
+  <si>
+    <t>01-11-2009</t>
+  </si>
+  <si>
+    <t>01-12-2009</t>
   </si>
   <si>
     <t>01-01-2010</t>
@@ -815,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,874 +1151,529 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>5.3</v>
-      </c>
-      <c r="C2">
-        <v>5.8</v>
-      </c>
-      <c r="D2">
-        <v>6.1</v>
-      </c>
-      <c r="E2">
-        <v>2.7</v>
-      </c>
       <c r="F2">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="E3">
+        <v>5.4</v>
+      </c>
+      <c r="F3">
         <v>5.5</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>5.8</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>2.6</v>
-      </c>
-      <c r="F3">
-        <v>2.9</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="E4">
+        <v>5.1</v>
+      </c>
+      <c r="F4">
+        <v>5.4</v>
+      </c>
+      <c r="G4">
         <v>5.5</v>
-      </c>
-      <c r="C4">
-        <v>5.9</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>2.4</v>
-      </c>
-      <c r="F4">
-        <v>2.9</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>5.6</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="F5">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>5.7</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="F6">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>5.7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
       <c r="E7">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="F7">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>5.8</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
       <c r="E8">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>5.8</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>6.1</v>
-      </c>
       <c r="E9">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="F9">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>5.7</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="F10">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>5.7</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
       <c r="E11">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>5.7</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>6.1</v>
-      </c>
       <c r="E12">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>5.8</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
       <c r="E13">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="F13">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>6.1</v>
-      </c>
-      <c r="C14">
-        <v>6.2</v>
-      </c>
-      <c r="D14">
-        <v>6.2</v>
-      </c>
       <c r="E14">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>6.4</v>
-      </c>
-      <c r="C15">
-        <v>6.3</v>
-      </c>
-      <c r="D15">
-        <v>6.3</v>
-      </c>
       <c r="E15">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>6.6</v>
-      </c>
-      <c r="C16">
-        <v>6.5</v>
-      </c>
-      <c r="D16">
-        <v>6.3</v>
-      </c>
       <c r="E16">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="F16">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>6.5</v>
-      </c>
-      <c r="C17">
-        <v>6.5</v>
-      </c>
-      <c r="D17">
-        <v>6.3</v>
-      </c>
       <c r="E17">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="F17">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>6.4</v>
-      </c>
-      <c r="C18">
-        <v>6.4</v>
-      </c>
-      <c r="D18">
-        <v>6.3</v>
-      </c>
       <c r="E18">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="F18">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>6.3</v>
-      </c>
-      <c r="C19">
-        <v>6.3</v>
-      </c>
-      <c r="D19">
-        <v>6.2</v>
-      </c>
       <c r="E19">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="F19">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>6.2</v>
-      </c>
-      <c r="C20">
-        <v>6.2</v>
-      </c>
-      <c r="D20">
-        <v>6.1</v>
-      </c>
       <c r="E20">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="F20">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>5.9</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
       <c r="E21">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F21">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G21">
-        <v>2.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
-        <v>5.3</v>
-      </c>
-      <c r="C22">
-        <v>5.5</v>
-      </c>
-      <c r="D22">
-        <v>5.7</v>
-      </c>
       <c r="E22">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F22">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G22">
-        <v>2.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>5.2</v>
-      </c>
-      <c r="D23">
-        <v>5.6</v>
-      </c>
       <c r="E23">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="F23">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="G23">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>5.2</v>
-      </c>
-      <c r="C24">
-        <v>5.4</v>
-      </c>
-      <c r="D24">
-        <v>5.7</v>
-      </c>
       <c r="E24">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G24">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>5.2</v>
-      </c>
-      <c r="C25">
-        <v>5.3</v>
-      </c>
-      <c r="D25">
-        <v>5.5</v>
-      </c>
       <c r="E25">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G25">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>5.1</v>
-      </c>
-      <c r="C26">
-        <v>5.3</v>
-      </c>
-      <c r="D26">
-        <v>5.5</v>
-      </c>
       <c r="E26">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="F26">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G26">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>5.1</v>
-      </c>
-      <c r="C27">
-        <v>5.3</v>
-      </c>
-      <c r="D27">
-        <v>5.5</v>
-      </c>
       <c r="E27">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="F27">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="G27">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>5.4</v>
-      </c>
-      <c r="C28">
-        <v>5.5</v>
-      </c>
-      <c r="D28">
-        <v>5.5</v>
-      </c>
       <c r="E28">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F28">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="G28">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>5.7</v>
-      </c>
-      <c r="C29">
-        <v>5.8</v>
-      </c>
-      <c r="D29">
-        <v>5.8</v>
-      </c>
       <c r="E29">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G29">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>5.6</v>
-      </c>
-      <c r="C30">
-        <v>5.7</v>
-      </c>
-      <c r="D30">
-        <v>5.6</v>
-      </c>
       <c r="E30">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="F30">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>5.3</v>
-      </c>
-      <c r="C31">
-        <v>5.5</v>
-      </c>
-      <c r="D31">
-        <v>5.6</v>
-      </c>
       <c r="E31">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G31">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>5.2</v>
-      </c>
-      <c r="C32">
-        <v>5.4</v>
-      </c>
-      <c r="D32">
-        <v>5.5</v>
-      </c>
       <c r="E32">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G32">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>5.2</v>
-      </c>
-      <c r="C33">
-        <v>5.4</v>
-      </c>
-      <c r="D33">
-        <v>5.5</v>
-      </c>
       <c r="E33">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F33">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G33">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>5.3</v>
-      </c>
-      <c r="C34">
-        <v>5.4</v>
-      </c>
-      <c r="D34">
-        <v>5.5</v>
-      </c>
       <c r="E34">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="F34">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="G34">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>5.4</v>
-      </c>
-      <c r="C35">
-        <v>5.4</v>
-      </c>
-      <c r="D35">
-        <v>5.5</v>
-      </c>
       <c r="E35">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="F35">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="G35">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
-        <v>5.4</v>
-      </c>
-      <c r="C36">
-        <v>5.4</v>
-      </c>
-      <c r="D36">
-        <v>5.5</v>
-      </c>
       <c r="E36">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F36">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G36">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
-        <v>5.5</v>
-      </c>
-      <c r="C37">
-        <v>5.6</v>
-      </c>
-      <c r="D37">
-        <v>5.6</v>
-      </c>
       <c r="E37">
         <v>2.5</v>
       </c>
       <c r="F37">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G37">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
-        <v>5.5</v>
-      </c>
-      <c r="C38">
-        <v>5.6</v>
-      </c>
-      <c r="D38">
-        <v>5.6</v>
-      </c>
       <c r="E38">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F38">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="G38">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39">
-        <v>5.6</v>
-      </c>
-      <c r="C39">
-        <v>5.6</v>
-      </c>
-      <c r="D39">
-        <v>5.6</v>
-      </c>
       <c r="E39">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F39">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1723,22 +1681,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C40">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D40">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="E40">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F40">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1746,22 +1704,22 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C41">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D41">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="E41">
         <v>2.6</v>
       </c>
       <c r="F41">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G41">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1769,22 +1727,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="C42">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="E42">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F42">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G42">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1795,19 +1753,19 @@
         <v>5.1</v>
       </c>
       <c r="C43">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D43">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E43">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F43">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G43">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1818,19 +1776,19 @@
         <v>5.1</v>
       </c>
       <c r="C44">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D44">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="E44">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="F44">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1838,22 +1796,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="C45">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D45">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="E45">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="F45">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1861,22 +1819,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="C46">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D46">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="E46">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="F46">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1884,22 +1842,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="C47">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="E47">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="F47">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="G47">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1907,22 +1865,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="E48">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="F48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G48">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1930,22 +1888,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="D49">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="F49">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G49">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1953,22 +1911,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="F50">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G50">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1976,22 +1934,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="C51">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="E51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G51">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1999,22 +1957,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="C52">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="D52">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="E52">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G52">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2022,22 +1980,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="C53">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E53">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="F53">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2045,22 +2003,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="C54">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E54">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="F54">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2068,22 +2026,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="C55">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="E55">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="F55">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2091,22 +2049,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="C56">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="D56">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="E56">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="G56">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2114,22 +2072,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="D57">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="E57">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="F57">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="G57">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2137,22 +2095,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="D58">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="E58">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="F58">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="G58">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2160,22 +2118,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="C59">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="D59">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="E59">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="G59">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2183,22 +2141,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="C60">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="D60">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="E60">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="F60">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="G60">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2206,22 +2164,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="C61">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="D61">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="E61">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="F61">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="G61">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2229,22 +2187,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="C62">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="D62">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="E62">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="F62">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="G62">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2252,22 +2210,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="C63">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="D63">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="E63">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="F63">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="G63">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2275,22 +2233,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="C64">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E64">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="G64">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2298,22 +2256,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="D65">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2321,22 +2279,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="C66">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="D66">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="F66">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2344,22 +2302,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="C67">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="D67">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="E67">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="F67">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="G67">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2367,22 +2325,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="C68">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="D68">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="E68">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F68">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="G68">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2390,22 +2348,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="C69">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="D69">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F69">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="G69">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2413,22 +2371,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="C70">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="D70">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="E70">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="F70">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="G70">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2436,22 +2394,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="C71">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="D71">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="E71">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="F71">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="G71">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2459,22 +2417,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="C72">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="E72">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="F72">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2482,22 +2440,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="C73">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="D73">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="E73">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="G73">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2505,22 +2463,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="C74">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="D74">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="E74">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="G74">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2528,22 +2486,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="C75">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="D75">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="E75">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="G75">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2551,22 +2509,22 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="C76">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="D76">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="E76">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="F76">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2574,22 +2532,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="D77">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="E77">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="F77">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2597,22 +2555,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="D78">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E78">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="F78">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G78">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2620,22 +2578,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="D79">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E79">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2643,22 +2601,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="D80">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E80">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="F80">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="G80">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2666,22 +2624,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="D81">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E81">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="F81">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="G81">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2689,22 +2647,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="C82">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="D82">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="E82">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="F82">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="G82">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2712,22 +2670,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="D83">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F83">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="G83">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2735,22 +2693,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="D84">
-        <v>4.3</v>
+        <v>6.5</v>
       </c>
       <c r="E84">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="F84">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="G84">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2758,22 +2716,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>4.1</v>
+        <v>7.7</v>
       </c>
       <c r="C85">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="D85">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="E85">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2781,22 +2739,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="D86">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="E86">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="F86">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>1.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2804,22 +2762,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="D87">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="G87">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2827,22 +2785,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="D88">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="G88">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2850,22 +2808,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="D89">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="G89">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2873,22 +2831,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="C90">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="D90">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="E90">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="G90">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2896,22 +2854,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="D91">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2919,22 +2877,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="D92">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="G92">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2942,22 +2900,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D93">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F93">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2965,22 +2923,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D94">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F94">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="G94">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2988,22 +2946,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="E95">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="G95">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3011,22 +2969,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="E96">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="F96">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="G96">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3034,22 +2992,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="D97">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="E97">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F97">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="G97">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3057,22 +3015,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="E98">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="F98">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="G98">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3080,22 +3038,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="D99">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="E99">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F99">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="G99">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3103,22 +3061,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="D100">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="E100">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="F100">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="G100">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3126,22 +3084,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="D101">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="F101">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="G101">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3149,22 +3107,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="C102">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="D102">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="F102">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="G102">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3172,22 +3130,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="C103">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="D103">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="E103">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="F103">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="G103">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3195,22 +3153,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="C104">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="D104">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="F104">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="G104">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3218,22 +3176,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="C105">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="D105">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="F105">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="G105">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3241,22 +3199,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="C106">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E106">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F106">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="G106">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3264,22 +3222,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="C107">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F107">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="G107">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3287,22 +3245,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="C108">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F108">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="G108">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3310,22 +3268,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="C109">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F109">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="G109">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3333,22 +3291,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="C110">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="E110">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F110">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="G110">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3356,22 +3314,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="C111">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F111">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="G111">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3379,22 +3337,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="C112">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="D112">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="F112">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="G112">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3402,22 +3360,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="C113">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="F113">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="G113">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3425,22 +3383,22 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="G114">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3448,22 +3406,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="C115">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="E115">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="F115">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3471,22 +3429,22 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="C116">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="D116">
-        <v>3.9</v>
+        <v>6.3</v>
       </c>
       <c r="E116">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="F116">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3494,22 +3452,22 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="C117">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="D117">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
       <c r="E117">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="F117">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="G117">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3517,22 +3475,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="C118">
+        <v>6.5</v>
+      </c>
+      <c r="D118">
+        <v>6.3</v>
+      </c>
+      <c r="E118">
+        <v>2.6</v>
+      </c>
+      <c r="F118">
         <v>2.9</v>
       </c>
-      <c r="D118">
-        <v>3.2</v>
-      </c>
-      <c r="E118">
-        <v>-0.3</v>
-      </c>
-      <c r="F118">
-        <v>0.2</v>
-      </c>
       <c r="G118">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3540,22 +3498,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="C119">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="D119">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="E119">
-        <v>-0.3</v>
+        <v>2.7</v>
       </c>
       <c r="F119">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="G119">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3563,22 +3521,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
       <c r="C120">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="D120">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="E120">
-        <v>-0.2</v>
+        <v>2.7</v>
       </c>
       <c r="F120">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3586,22 +3544,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="C121">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="D121">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="E121">
-        <v>-0.1</v>
+        <v>2.7</v>
       </c>
       <c r="F121">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="G121">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3609,22 +3567,22 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="C122">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>-0.2</v>
+        <v>2.7</v>
       </c>
       <c r="F122">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="G122">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3632,22 +3590,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D123">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="E123">
-        <v>-0.3</v>
+        <v>2.5</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G123">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3655,22 +3613,22 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="D124">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="E124">
-        <v>-0.4</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G124">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3678,22 +3636,22 @@
         <v>130</v>
       </c>
       <c r="B125">
+        <v>5.2</v>
+      </c>
+      <c r="C125">
+        <v>5.4</v>
+      </c>
+      <c r="D125">
+        <v>5.7</v>
+      </c>
+      <c r="E125">
+        <v>2.3</v>
+      </c>
+      <c r="F125">
+        <v>2.5</v>
+      </c>
+      <c r="G125">
         <v>2.6</v>
-      </c>
-      <c r="C125">
-        <v>2.9</v>
-      </c>
-      <c r="D125">
-        <v>3.2</v>
-      </c>
-      <c r="E125">
-        <v>-0.6</v>
-      </c>
-      <c r="F125">
-        <v>-0.1</v>
-      </c>
-      <c r="G125">
-        <v>0.2</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3701,22 +3659,22 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="C126">
+        <v>5.3</v>
+      </c>
+      <c r="D126">
+        <v>5.5</v>
+      </c>
+      <c r="E126">
+        <v>2.4</v>
+      </c>
+      <c r="F126">
         <v>2.5</v>
       </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126">
-        <v>-0.7</v>
-      </c>
-      <c r="F126">
-        <v>-0.3</v>
-      </c>
       <c r="G126">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3724,22 +3682,22 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="C127">
+        <v>5.3</v>
+      </c>
+      <c r="D127">
+        <v>5.5</v>
+      </c>
+      <c r="E127">
         <v>2.3</v>
       </c>
-      <c r="D127">
-        <v>2.9</v>
-      </c>
-      <c r="E127">
-        <v>-0.8</v>
-      </c>
       <c r="F127">
-        <v>-0.3</v>
+        <v>2.5</v>
       </c>
       <c r="G127">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3747,22 +3705,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="D128">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="E128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="F128">
-        <v>-0.5</v>
+        <v>2.4</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3770,22 +3728,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D129">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="E129">
-        <v>-0.9</v>
+        <v>2.2</v>
       </c>
       <c r="F129">
-        <v>-0.5</v>
+        <v>2.4</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3793,22 +3751,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="C130">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="D130">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="E130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="F130">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3816,22 +3774,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="C131">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="D131">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="E131">
-        <v>-0.9</v>
+        <v>2.5</v>
       </c>
       <c r="F131">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3839,22 +3797,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="C132">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="D132">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="E132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="F132">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3862,22 +3820,22 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="C133">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="D133">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="E133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="F133">
-        <v>-0.6</v>
+        <v>2.5</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3885,22 +3843,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="C134">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="D134">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="E134">
-        <v>-1.1</v>
+        <v>2.4</v>
       </c>
       <c r="F134">
-        <v>-0.7</v>
+        <v>2.5</v>
       </c>
       <c r="G134">
-        <v>-0.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3908,22 +3866,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="D135">
+        <v>5.5</v>
+      </c>
+      <c r="E135">
+        <v>2.3</v>
+      </c>
+      <c r="F135">
+        <v>2.4</v>
+      </c>
+      <c r="G135">
         <v>2.5</v>
-      </c>
-      <c r="E135">
-        <v>-1.3</v>
-      </c>
-      <c r="F135">
-        <v>-1</v>
-      </c>
-      <c r="G135">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3931,22 +3889,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="C136">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="D136">
+        <v>5.5</v>
+      </c>
+      <c r="E136">
+        <v>2.3</v>
+      </c>
+      <c r="F136">
+        <v>2.4</v>
+      </c>
+      <c r="G136">
         <v>2.5</v>
-      </c>
-      <c r="E136">
-        <v>-1.3</v>
-      </c>
-      <c r="F136">
-        <v>-0.9</v>
-      </c>
-      <c r="G136">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3954,22 +3912,22 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="C137">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="F137">
-        <v>-0.6</v>
+        <v>2.5</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3977,22 +3935,22 @@
         <v>143</v>
       </c>
       <c r="B138">
+        <v>5.5</v>
+      </c>
+      <c r="C138">
+        <v>5.6</v>
+      </c>
+      <c r="D138">
+        <v>5.6</v>
+      </c>
+      <c r="E138">
         <v>2.5</v>
       </c>
-      <c r="C138">
-        <v>2.9</v>
-      </c>
-      <c r="D138">
-        <v>3.3</v>
-      </c>
-      <c r="E138">
-        <v>-0.5</v>
-      </c>
       <c r="F138">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G138">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4000,22 +3958,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="C139">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="D139">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="E139">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="F139">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="G139">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4023,22 +3981,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="D140">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G140">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4046,22 +4004,22 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="C141">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="D141">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="E141">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="F141">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="G141">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4069,21 +4027,2344 @@
         <v>147</v>
       </c>
       <c r="B142">
+        <v>5.6</v>
+      </c>
+      <c r="C142">
+        <v>5.6</v>
+      </c>
+      <c r="D142">
+        <v>5.7</v>
+      </c>
+      <c r="E142">
+        <v>2.6</v>
+      </c>
+      <c r="F142">
+        <v>2.6</v>
+      </c>
+      <c r="G142">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>5.3</v>
+      </c>
+      <c r="C143">
+        <v>5.4</v>
+      </c>
+      <c r="D143">
+        <v>5.5</v>
+      </c>
+      <c r="E143">
+        <v>2.5</v>
+      </c>
+      <c r="F143">
+        <v>2.5</v>
+      </c>
+      <c r="G143">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>5.1</v>
+      </c>
+      <c r="C144">
+        <v>5.2</v>
+      </c>
+      <c r="D144">
+        <v>5.4</v>
+      </c>
+      <c r="E144">
+        <v>2.4</v>
+      </c>
+      <c r="F144">
+        <v>2.5</v>
+      </c>
+      <c r="G144">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>5.1</v>
+      </c>
+      <c r="C145">
+        <v>5.2</v>
+      </c>
+      <c r="D145">
+        <v>5.4</v>
+      </c>
+      <c r="E145">
+        <v>2.3</v>
+      </c>
+      <c r="F145">
+        <v>2.4</v>
+      </c>
+      <c r="G145">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>5.1</v>
+      </c>
+      <c r="C146">
+        <v>5.2</v>
+      </c>
+      <c r="D146">
+        <v>5.3</v>
+      </c>
+      <c r="E146">
+        <v>2.2</v>
+      </c>
+      <c r="F146">
+        <v>2.3</v>
+      </c>
+      <c r="G146">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>5.1</v>
+      </c>
+      <c r="C147">
+        <v>5.2</v>
+      </c>
+      <c r="D147">
+        <v>5.3</v>
+      </c>
+      <c r="E147">
+        <v>2.2</v>
+      </c>
+      <c r="F147">
+        <v>2.3</v>
+      </c>
+      <c r="G147">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>5.1</v>
+      </c>
+      <c r="C148">
+        <v>5.2</v>
+      </c>
+      <c r="D148">
+        <v>5.3</v>
+      </c>
+      <c r="E148">
+        <v>2.2</v>
+      </c>
+      <c r="F148">
+        <v>2.3</v>
+      </c>
+      <c r="G148">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
+        <v>4.9</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>5.2</v>
+      </c>
+      <c r="E149">
+        <v>2.1</v>
+      </c>
+      <c r="F149">
+        <v>2.2</v>
+      </c>
+      <c r="G149">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>4.8</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>5.2</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>2.1</v>
+      </c>
+      <c r="G150">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
+        <v>4.8</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>5.1</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>2.1</v>
+      </c>
+      <c r="G151">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152">
+        <v>4.8</v>
+      </c>
+      <c r="C152">
+        <v>4.9</v>
+      </c>
+      <c r="D152">
+        <v>5.1</v>
+      </c>
+      <c r="E152">
+        <v>1.9</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153">
+        <v>4.8</v>
+      </c>
+      <c r="C153">
+        <v>4.9</v>
+      </c>
+      <c r="D153">
+        <v>5.1</v>
+      </c>
+      <c r="E153">
+        <v>1.8</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
+        <v>4.8</v>
+      </c>
+      <c r="C154">
+        <v>4.9</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>1.8</v>
+      </c>
+      <c r="F154">
+        <v>1.9</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155">
+        <v>4.8</v>
+      </c>
+      <c r="C155">
+        <v>4.9</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>1.7</v>
+      </c>
+      <c r="F155">
+        <v>1.9</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
+        <v>4.7</v>
+      </c>
+      <c r="C156">
+        <v>4.8</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>1.7</v>
+      </c>
+      <c r="F156">
+        <v>1.8</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157">
         <v>4.6</v>
       </c>
-      <c r="C142">
+      <c r="C157">
+        <v>4.7</v>
+      </c>
+      <c r="D157">
         <v>4.9</v>
       </c>
-      <c r="D142">
+      <c r="E157">
+        <v>1.7</v>
+      </c>
+      <c r="F157">
+        <v>1.8</v>
+      </c>
+      <c r="G157">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158">
+        <v>4.2</v>
+      </c>
+      <c r="C158">
+        <v>4.4</v>
+      </c>
+      <c r="D158">
+        <v>4.7</v>
+      </c>
+      <c r="E158">
+        <v>1.5</v>
+      </c>
+      <c r="F158">
+        <v>1.6</v>
+      </c>
+      <c r="G158">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>4.2</v>
+      </c>
+      <c r="C159">
+        <v>4.5</v>
+      </c>
+      <c r="D159">
+        <v>4.7</v>
+      </c>
+      <c r="E159">
+        <v>1.3</v>
+      </c>
+      <c r="F159">
+        <v>1.5</v>
+      </c>
+      <c r="G159">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
+        <v>4.4</v>
+      </c>
+      <c r="C160">
+        <v>4.6</v>
+      </c>
+      <c r="D160">
+        <v>4.7</v>
+      </c>
+      <c r="E160">
+        <v>1.4</v>
+      </c>
+      <c r="F160">
+        <v>1.5</v>
+      </c>
+      <c r="G160">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161">
+        <v>4.3</v>
+      </c>
+      <c r="C161">
+        <v>4.5</v>
+      </c>
+      <c r="D161">
+        <v>4.7</v>
+      </c>
+      <c r="E161">
+        <v>1.3</v>
+      </c>
+      <c r="F161">
+        <v>1.5</v>
+      </c>
+      <c r="G161">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>4.1</v>
+      </c>
+      <c r="C162">
+        <v>4.4</v>
+      </c>
+      <c r="D162">
+        <v>4.6</v>
+      </c>
+      <c r="E162">
+        <v>1.4</v>
+      </c>
+      <c r="F162">
+        <v>1.5</v>
+      </c>
+      <c r="G162">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>4.2</v>
+      </c>
+      <c r="D163">
+        <v>4.5</v>
+      </c>
+      <c r="E163">
+        <v>1.4</v>
+      </c>
+      <c r="F163">
+        <v>1.5</v>
+      </c>
+      <c r="G163">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>4.2</v>
+      </c>
+      <c r="D164">
+        <v>4.5</v>
+      </c>
+      <c r="E164">
+        <v>1.3</v>
+      </c>
+      <c r="F164">
+        <v>1.4</v>
+      </c>
+      <c r="G164">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>4.3</v>
+      </c>
+      <c r="D165">
+        <v>4.5</v>
+      </c>
+      <c r="E165">
+        <v>1.1</v>
+      </c>
+      <c r="F165">
+        <v>1.4</v>
+      </c>
+      <c r="G165">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>4.2</v>
+      </c>
+      <c r="C166">
+        <v>4.4</v>
+      </c>
+      <c r="D166">
+        <v>4.5</v>
+      </c>
+      <c r="E166">
+        <v>1.1</v>
+      </c>
+      <c r="F166">
+        <v>1.4</v>
+      </c>
+      <c r="G166">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
+        <v>4.2</v>
+      </c>
+      <c r="C167">
+        <v>4.4</v>
+      </c>
+      <c r="D167">
+        <v>4.5</v>
+      </c>
+      <c r="E167">
+        <v>1.2</v>
+      </c>
+      <c r="F167">
+        <v>1.4</v>
+      </c>
+      <c r="G167">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
+        <v>4.2</v>
+      </c>
+      <c r="C168">
+        <v>4.5</v>
+      </c>
+      <c r="D168">
+        <v>4.6</v>
+      </c>
+      <c r="E168">
+        <v>1.2</v>
+      </c>
+      <c r="F168">
+        <v>1.4</v>
+      </c>
+      <c r="G168">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>4.2</v>
+      </c>
+      <c r="C169">
+        <v>4.4</v>
+      </c>
+      <c r="D169">
+        <v>4.6</v>
+      </c>
+      <c r="E169">
+        <v>1.2</v>
+      </c>
+      <c r="F169">
+        <v>1.4</v>
+      </c>
+      <c r="G169">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
+        <v>4.1</v>
+      </c>
+      <c r="C170">
+        <v>4.3</v>
+      </c>
+      <c r="D170">
+        <v>4.5</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1.3</v>
+      </c>
+      <c r="G170">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>4.2</v>
+      </c>
+      <c r="C171">
+        <v>4.4</v>
+      </c>
+      <c r="D171">
+        <v>4.5</v>
+      </c>
+      <c r="E171">
+        <v>1.1</v>
+      </c>
+      <c r="F171">
+        <v>1.3</v>
+      </c>
+      <c r="G171">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>4.2</v>
+      </c>
+      <c r="C172">
+        <v>4.4</v>
+      </c>
+      <c r="D172">
+        <v>4.5</v>
+      </c>
+      <c r="E172">
+        <v>1.1</v>
+      </c>
+      <c r="F172">
+        <v>1.3</v>
+      </c>
+      <c r="G172">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>4.3</v>
+      </c>
+      <c r="C173">
+        <v>4.5</v>
+      </c>
+      <c r="D173">
+        <v>4.5</v>
+      </c>
+      <c r="E173">
+        <v>1.3</v>
+      </c>
+      <c r="F173">
+        <v>1.4</v>
+      </c>
+      <c r="G173">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>4.3</v>
+      </c>
+      <c r="C174">
+        <v>4.5</v>
+      </c>
+      <c r="D174">
+        <v>4.6</v>
+      </c>
+      <c r="E174">
+        <v>1.3</v>
+      </c>
+      <c r="F174">
+        <v>1.5</v>
+      </c>
+      <c r="G174">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>4.4</v>
+      </c>
+      <c r="C175">
+        <v>4.6</v>
+      </c>
+      <c r="D175">
+        <v>4.7</v>
+      </c>
+      <c r="E175">
+        <v>1.4</v>
+      </c>
+      <c r="F175">
+        <v>1.5</v>
+      </c>
+      <c r="G175">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>4.3</v>
+      </c>
+      <c r="C176">
+        <v>4.5</v>
+      </c>
+      <c r="D176">
+        <v>4.6</v>
+      </c>
+      <c r="E176">
+        <v>1.3</v>
+      </c>
+      <c r="F176">
+        <v>1.5</v>
+      </c>
+      <c r="G176">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>4.3</v>
+      </c>
+      <c r="C177">
+        <v>4.5</v>
+      </c>
+      <c r="D177">
+        <v>4.6</v>
+      </c>
+      <c r="E177">
+        <v>1.2</v>
+      </c>
+      <c r="F177">
+        <v>1.4</v>
+      </c>
+      <c r="G177">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>4.3</v>
+      </c>
+      <c r="C178">
+        <v>4.4</v>
+      </c>
+      <c r="D178">
+        <v>4.6</v>
+      </c>
+      <c r="E178">
+        <v>1.2</v>
+      </c>
+      <c r="F178">
+        <v>1.3</v>
+      </c>
+      <c r="G178">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>4.2</v>
+      </c>
+      <c r="C179">
+        <v>4.4</v>
+      </c>
+      <c r="D179">
+        <v>4.5</v>
+      </c>
+      <c r="E179">
+        <v>1.2</v>
+      </c>
+      <c r="F179">
+        <v>1.3</v>
+      </c>
+      <c r="G179">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180">
+        <v>4.2</v>
+      </c>
+      <c r="C180">
+        <v>4.3</v>
+      </c>
+      <c r="D180">
+        <v>4.5</v>
+      </c>
+      <c r="E180">
+        <v>1.2</v>
+      </c>
+      <c r="F180">
+        <v>1.3</v>
+      </c>
+      <c r="G180">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181">
+        <v>4.2</v>
+      </c>
+      <c r="C181">
+        <v>4.3</v>
+      </c>
+      <c r="D181">
+        <v>4.5</v>
+      </c>
+      <c r="E181">
+        <v>1.2</v>
+      </c>
+      <c r="F181">
+        <v>1.3</v>
+      </c>
+      <c r="G181">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182">
+        <v>4.1</v>
+      </c>
+      <c r="C182">
+        <v>4.3</v>
+      </c>
+      <c r="D182">
+        <v>4.5</v>
+      </c>
+      <c r="E182">
+        <v>1.1</v>
+      </c>
+      <c r="F182">
+        <v>1.3</v>
+      </c>
+      <c r="G182">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>4.2</v>
+      </c>
+      <c r="D183">
+        <v>4.4</v>
+      </c>
+      <c r="E183">
+        <v>1.1</v>
+      </c>
+      <c r="F183">
+        <v>1.2</v>
+      </c>
+      <c r="G183">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>4.1</v>
+      </c>
+      <c r="D184">
+        <v>4.3</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1.1</v>
+      </c>
+      <c r="G184">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>3.9</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>4.3</v>
+      </c>
+      <c r="E185">
+        <v>1.1</v>
+      </c>
+      <c r="F185">
+        <v>1.2</v>
+      </c>
+      <c r="G185">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>4.1</v>
+      </c>
+      <c r="C186">
+        <v>4.2</v>
+      </c>
+      <c r="D186">
+        <v>4.3</v>
+      </c>
+      <c r="E186">
+        <v>1.3</v>
+      </c>
+      <c r="F186">
+        <v>1.3</v>
+      </c>
+      <c r="G186">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187">
+        <v>3.9</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>4.2</v>
+      </c>
+      <c r="E187">
+        <v>1.1</v>
+      </c>
+      <c r="F187">
+        <v>1.2</v>
+      </c>
+      <c r="G187">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188">
+        <v>3.8</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>4.2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1.1</v>
+      </c>
+      <c r="G188">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189">
+        <v>3.8</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>4.2</v>
+      </c>
+      <c r="E189">
+        <v>0.9</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190">
+        <v>3.7</v>
+      </c>
+      <c r="C190">
+        <v>3.9</v>
+      </c>
+      <c r="D190">
+        <v>4.1</v>
+      </c>
+      <c r="E190">
+        <v>0.8</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191">
+        <v>3.6</v>
+      </c>
+      <c r="C191">
+        <v>3.9</v>
+      </c>
+      <c r="D191">
+        <v>4.1</v>
+      </c>
+      <c r="E191">
+        <v>0.8</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192">
+        <v>3.7</v>
+      </c>
+      <c r="C192">
+        <v>3.9</v>
+      </c>
+      <c r="D192">
+        <v>4.1</v>
+      </c>
+      <c r="E192">
+        <v>0.9</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193">
+        <v>3.7</v>
+      </c>
+      <c r="C193">
+        <v>3.9</v>
+      </c>
+      <c r="D193">
+        <v>4.1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194">
+        <v>3.7</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>4.2</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1.2</v>
+      </c>
+      <c r="G194">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>3.7</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>4.2</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1.2</v>
+      </c>
+      <c r="G195">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196">
+        <v>3.8</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>4.2</v>
+      </c>
+      <c r="E196">
+        <v>1.1</v>
+      </c>
+      <c r="F196">
+        <v>1.3</v>
+      </c>
+      <c r="G196">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197">
+        <v>3.8</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>4.3</v>
+      </c>
+      <c r="E197">
+        <v>1.2</v>
+      </c>
+      <c r="F197">
+        <v>1.3</v>
+      </c>
+      <c r="G197">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>4.2</v>
+      </c>
+      <c r="D198">
+        <v>4.4</v>
+      </c>
+      <c r="E198">
+        <v>1.3</v>
+      </c>
+      <c r="F198">
+        <v>1.5</v>
+      </c>
+      <c r="G198">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>4.3</v>
+      </c>
+      <c r="D199">
+        <v>4.5</v>
+      </c>
+      <c r="E199">
+        <v>1.4</v>
+      </c>
+      <c r="F199">
+        <v>1.5</v>
+      </c>
+      <c r="G199">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>4.3</v>
+      </c>
+      <c r="D200">
+        <v>4.5</v>
+      </c>
+      <c r="E200">
+        <v>1.3</v>
+      </c>
+      <c r="F200">
+        <v>1.5</v>
+      </c>
+      <c r="G200">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>4.3</v>
+      </c>
+      <c r="D201">
+        <v>4.5</v>
+      </c>
+      <c r="E201">
+        <v>1.3</v>
+      </c>
+      <c r="F201">
+        <v>1.5</v>
+      </c>
+      <c r="G201">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>4.3</v>
+      </c>
+      <c r="D202">
+        <v>4.5</v>
+      </c>
+      <c r="E202">
+        <v>1.3</v>
+      </c>
+      <c r="F202">
+        <v>1.4</v>
+      </c>
+      <c r="G202">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>4.3</v>
+      </c>
+      <c r="D203">
+        <v>4.5</v>
+      </c>
+      <c r="E203">
+        <v>1.3</v>
+      </c>
+      <c r="F203">
+        <v>1.4</v>
+      </c>
+      <c r="G203">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>4.3</v>
+      </c>
+      <c r="D204">
+        <v>4.5</v>
+      </c>
+      <c r="E204">
+        <v>1.2</v>
+      </c>
+      <c r="F204">
+        <v>1.4</v>
+      </c>
+      <c r="G204">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205">
+        <v>4.1</v>
+      </c>
+      <c r="C205">
+        <v>4.3</v>
+      </c>
+      <c r="D205">
+        <v>4.5</v>
+      </c>
+      <c r="E205">
+        <v>1.2</v>
+      </c>
+      <c r="F205">
+        <v>1.4</v>
+      </c>
+      <c r="G205">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206">
+        <v>4.1</v>
+      </c>
+      <c r="C206">
+        <v>4.3</v>
+      </c>
+      <c r="D206">
+        <v>4.5</v>
+      </c>
+      <c r="E206">
+        <v>1.2</v>
+      </c>
+      <c r="F206">
+        <v>1.4</v>
+      </c>
+      <c r="G206">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207">
+        <v>4.1</v>
+      </c>
+      <c r="C207">
+        <v>4.3</v>
+      </c>
+      <c r="D207">
+        <v>4.5</v>
+      </c>
+      <c r="E207">
+        <v>1.2</v>
+      </c>
+      <c r="F207">
+        <v>1.4</v>
+      </c>
+      <c r="G207">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208">
+        <v>4.2</v>
+      </c>
+      <c r="C208">
+        <v>4.4</v>
+      </c>
+      <c r="D208">
+        <v>4.5</v>
+      </c>
+      <c r="E208">
+        <v>1.2</v>
+      </c>
+      <c r="F208">
+        <v>1.4</v>
+      </c>
+      <c r="G208">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209">
+        <v>4.3</v>
+      </c>
+      <c r="C209">
+        <v>4.4</v>
+      </c>
+      <c r="D209">
+        <v>4.5</v>
+      </c>
+      <c r="E209">
+        <v>1.3</v>
+      </c>
+      <c r="F209">
+        <v>1.4</v>
+      </c>
+      <c r="G209">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210">
+        <v>4.3</v>
+      </c>
+      <c r="C210">
+        <v>4.4</v>
+      </c>
+      <c r="D210">
+        <v>4.6</v>
+      </c>
+      <c r="E210">
+        <v>1.3</v>
+      </c>
+      <c r="F210">
+        <v>1.5</v>
+      </c>
+      <c r="G210">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>4.2</v>
+      </c>
+      <c r="C211">
+        <v>4.4</v>
+      </c>
+      <c r="D211">
+        <v>4.5</v>
+      </c>
+      <c r="E211">
+        <v>1.3</v>
+      </c>
+      <c r="F211">
+        <v>1.4</v>
+      </c>
+      <c r="G211">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212">
+        <v>4.1</v>
+      </c>
+      <c r="C212">
+        <v>4.3</v>
+      </c>
+      <c r="D212">
+        <v>4.5</v>
+      </c>
+      <c r="E212">
+        <v>1.2</v>
+      </c>
+      <c r="F212">
+        <v>1.3</v>
+      </c>
+      <c r="G212">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>4.2</v>
+      </c>
+      <c r="D213">
+        <v>4.4</v>
+      </c>
+      <c r="E213">
+        <v>1.2</v>
+      </c>
+      <c r="F213">
+        <v>1.3</v>
+      </c>
+      <c r="G213">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214">
+        <v>3.9</v>
+      </c>
+      <c r="C214">
+        <v>4.1</v>
+      </c>
+      <c r="D214">
+        <v>4.3</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1.2</v>
+      </c>
+      <c r="G214">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215">
+        <v>3.8</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>4.2</v>
+      </c>
+      <c r="E215">
+        <v>0.9</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216">
+        <v>3.5</v>
+      </c>
+      <c r="C216">
+        <v>3.8</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216">
+        <v>0.6</v>
+      </c>
+      <c r="F216">
+        <v>0.9</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217">
+        <v>3.2</v>
+      </c>
+      <c r="C217">
+        <v>3.5</v>
+      </c>
+      <c r="D217">
+        <v>3.9</v>
+      </c>
+      <c r="E217">
+        <v>0.4</v>
+      </c>
+      <c r="F217">
+        <v>0.7</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218">
+        <v>2.8</v>
+      </c>
+      <c r="C218">
+        <v>3.1</v>
+      </c>
+      <c r="D218">
+        <v>3.3</v>
+      </c>
+      <c r="E218">
+        <v>0.1</v>
+      </c>
+      <c r="F218">
+        <v>0.4</v>
+      </c>
+      <c r="G218">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219">
+        <v>2.4</v>
+      </c>
+      <c r="C219">
+        <v>2.9</v>
+      </c>
+      <c r="D219">
+        <v>3.2</v>
+      </c>
+      <c r="E219">
+        <v>-0.3</v>
+      </c>
+      <c r="F219">
+        <v>0.2</v>
+      </c>
+      <c r="G219">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220">
+        <v>2.4</v>
+      </c>
+      <c r="C220">
+        <v>2.8</v>
+      </c>
+      <c r="D220">
+        <v>3.2</v>
+      </c>
+      <c r="E220">
+        <v>-0.3</v>
+      </c>
+      <c r="F220">
+        <v>0.1</v>
+      </c>
+      <c r="G220">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221">
+        <v>2.6</v>
+      </c>
+      <c r="C221">
+        <v>2.9</v>
+      </c>
+      <c r="D221">
+        <v>3.2</v>
+      </c>
+      <c r="E221">
+        <v>-0.2</v>
+      </c>
+      <c r="F221">
+        <v>0.2</v>
+      </c>
+      <c r="G221">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>3.2</v>
+      </c>
+      <c r="D222">
+        <v>3.4</v>
+      </c>
+      <c r="E222">
+        <v>-0.1</v>
+      </c>
+      <c r="F222">
+        <v>0.2</v>
+      </c>
+      <c r="G222">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223">
+        <v>2.9</v>
+      </c>
+      <c r="C223">
+        <v>3.2</v>
+      </c>
+      <c r="D223">
+        <v>3.4</v>
+      </c>
+      <c r="E223">
+        <v>-0.2</v>
+      </c>
+      <c r="F223">
+        <v>0.1</v>
+      </c>
+      <c r="G223">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224">
+        <v>2.9</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>3.4</v>
+      </c>
+      <c r="E224">
+        <v>-0.3</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225">
+        <v>2.8</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>3.2</v>
+      </c>
+      <c r="E225">
+        <v>-0.4</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226">
+        <v>2.6</v>
+      </c>
+      <c r="C226">
+        <v>2.9</v>
+      </c>
+      <c r="D226">
+        <v>3.2</v>
+      </c>
+      <c r="E226">
+        <v>-0.6</v>
+      </c>
+      <c r="F226">
+        <v>-0.1</v>
+      </c>
+      <c r="G226">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>2.5</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>-0.7</v>
+      </c>
+      <c r="F227">
+        <v>-0.3</v>
+      </c>
+      <c r="G227">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228">
+        <v>1.8</v>
+      </c>
+      <c r="C228">
+        <v>2.3</v>
+      </c>
+      <c r="D228">
+        <v>2.9</v>
+      </c>
+      <c r="E228">
+        <v>-0.8</v>
+      </c>
+      <c r="F228">
+        <v>-0.3</v>
+      </c>
+      <c r="G228">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229">
+        <v>1.5</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>2.8</v>
+      </c>
+      <c r="E229">
+        <v>-1</v>
+      </c>
+      <c r="F229">
+        <v>-0.5</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230">
+        <v>1.5</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>2.7</v>
+      </c>
+      <c r="E230">
+        <v>-0.9</v>
+      </c>
+      <c r="F230">
+        <v>-0.5</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231">
+        <v>1.5</v>
+      </c>
+      <c r="C231">
+        <v>2.1</v>
+      </c>
+      <c r="D231">
+        <v>2.9</v>
+      </c>
+      <c r="E231">
+        <v>-1</v>
+      </c>
+      <c r="F231">
+        <v>-0.5</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232">
+        <v>1.5</v>
+      </c>
+      <c r="C232">
+        <v>2.1</v>
+      </c>
+      <c r="D232">
+        <v>2.9</v>
+      </c>
+      <c r="E232">
+        <v>-0.9</v>
+      </c>
+      <c r="F232">
+        <v>-0.5</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233">
+        <v>1.6</v>
+      </c>
+      <c r="C233">
+        <v>2.1</v>
+      </c>
+      <c r="D233">
+        <v>2.8</v>
+      </c>
+      <c r="E233">
+        <v>-1</v>
+      </c>
+      <c r="F233">
+        <v>-0.5</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234">
+        <v>1.6</v>
+      </c>
+      <c r="C234">
+        <v>2.1</v>
+      </c>
+      <c r="D234">
+        <v>2.7</v>
+      </c>
+      <c r="E234">
+        <v>-1</v>
+      </c>
+      <c r="F234">
+        <v>-0.6</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235">
+        <v>1.6</v>
+      </c>
+      <c r="C235">
+        <v>2.1</v>
+      </c>
+      <c r="D235">
+        <v>2.7</v>
+      </c>
+      <c r="E235">
+        <v>-1.1</v>
+      </c>
+      <c r="F235">
+        <v>-0.7</v>
+      </c>
+      <c r="G235">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236">
+        <v>1.6</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>2.5</v>
+      </c>
+      <c r="E236">
+        <v>-1.3</v>
+      </c>
+      <c r="F236">
+        <v>-1</v>
+      </c>
+      <c r="G236">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237">
+        <v>1.7</v>
+      </c>
+      <c r="C237">
+        <v>2.1</v>
+      </c>
+      <c r="D237">
+        <v>2.5</v>
+      </c>
+      <c r="E237">
+        <v>-1.3</v>
+      </c>
+      <c r="F237">
+        <v>-0.9</v>
+      </c>
+      <c r="G237">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238">
+        <v>1.9</v>
+      </c>
+      <c r="C238">
+        <v>2.3</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>-1</v>
+      </c>
+      <c r="F238">
+        <v>-0.6</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239">
+        <v>2.5</v>
+      </c>
+      <c r="C239">
+        <v>2.9</v>
+      </c>
+      <c r="D239">
+        <v>3.3</v>
+      </c>
+      <c r="E239">
+        <v>-0.5</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240">
+        <v>2.9</v>
+      </c>
+      <c r="C240">
+        <v>3.4</v>
+      </c>
+      <c r="D240">
+        <v>3.7</v>
+      </c>
+      <c r="E240">
+        <v>0.2</v>
+      </c>
+      <c r="F240">
+        <v>0.5</v>
+      </c>
+      <c r="G240">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241">
+        <v>3.6</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>4.1</v>
+      </c>
+      <c r="E241">
+        <v>0.8</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242">
+        <v>3.9</v>
+      </c>
+      <c r="C242">
+        <v>4.2</v>
+      </c>
+      <c r="D242">
+        <v>4.5</v>
+      </c>
+      <c r="E242">
+        <v>0.9</v>
+      </c>
+      <c r="F242">
+        <v>1.1</v>
+      </c>
+      <c r="G242">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243">
+        <v>4.6</v>
+      </c>
+      <c r="C243">
         <v>4.9</v>
       </c>
-      <c r="E142">
+      <c r="D243">
+        <v>4.9</v>
+      </c>
+      <c r="E243">
         <v>1.2</v>
       </c>
-      <c r="F142">
+      <c r="F243">
         <v>1.6</v>
       </c>
-      <c r="G142">
+      <c r="G243">
         <v>1.6</v>
       </c>
     </row>

--- a/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa BCP y BCU 5 años 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Serie</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6368,6 +6371,29 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244">
+        <v>5.8</v>
+      </c>
+      <c r="C244">
+        <v>5.7</v>
+      </c>
+      <c r="D244">
+        <v>5.5</v>
+      </c>
+      <c r="E244">
+        <v>2.4</v>
+      </c>
+      <c r="F244">
+        <v>2.5</v>
+      </c>
+      <c r="G244">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
